--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AADemidov\Desktop\REFramework_NoQueue\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIBugakov\Documents\GitHub\PIX_riwGosh\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Имя</t>
   </si>
@@ -59,64 +59,52 @@
     <t>Почтовый сервер</t>
   </si>
   <si>
+    <t>MailSubject</t>
+  </si>
+  <si>
+    <t>Начало темы письма</t>
+  </si>
+  <si>
+    <t>REF_TEST</t>
+  </si>
+  <si>
+    <t>smtp.yandex.ru</t>
+  </si>
+  <si>
+    <t>MailCred</t>
+  </si>
+  <si>
+    <t>Windows Credentials для почты</t>
+  </si>
+  <si>
+    <t>* (Если Тип не указан, значение запишется напрямую в словарь dict_config)</t>
+  </si>
+  <si>
+    <t>RiveGaucheURL</t>
+  </si>
+  <si>
+    <t>https://rivegauche.ru/</t>
+  </si>
+  <si>
+    <t>URL сайта, где можно получить данные</t>
+  </si>
+  <si>
+    <t>BIT002_Email_Credentials</t>
+  </si>
+  <si>
+    <t>AuthCredentials</t>
+  </si>
+  <si>
     <t>MailAdmin</t>
   </si>
   <si>
-    <t>Получатели рассылок (пользователи)</t>
-  </si>
-  <si>
-    <t>Получатели рассылок (админы)</t>
-  </si>
-  <si>
-    <t>MailSubject</t>
-  </si>
-  <si>
-    <t>Начало темы письма</t>
-  </si>
-  <si>
-    <t>WinCred</t>
-  </si>
-  <si>
-    <t>PathRequest</t>
-  </si>
-  <si>
-    <t>IN\Request.xlsx</t>
-  </si>
-  <si>
-    <t>Путь до файла с входными данными</t>
-  </si>
-  <si>
-    <t>RpaChallengeURL</t>
-  </si>
-  <si>
-    <t>https://rpachallenge.com/</t>
-  </si>
-  <si>
-    <t>URL сайта, где заносятся данные</t>
-  </si>
-  <si>
-    <t>REF_TEST</t>
-  </si>
-  <si>
-    <t>smtp.yandex.ru</t>
-  </si>
-  <si>
-    <t>MailCred</t>
+    <t>NIBugakov@1bit.com , aademidov@1bit.com</t>
+  </si>
+  <si>
+    <t>NIBugakov@1bit.com</t>
   </si>
   <si>
     <t>MailRecip</t>
-  </si>
-  <si>
-    <t>Windows Credentials для почты</t>
-  </si>
-  <si>
-    <t>oaantonov@1bit.com</t>
-  </si>
-  <si>
-    <t>mailYandex</t>
-  </si>
-  <si>
-    <t>* (Если Тип не указан, значение запишется напрямую в словарь dict_config)</t>
   </si>
 </sst>
 </file>
@@ -209,7 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -251,6 +239,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -536,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E544"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -564,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -589,7 +580,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -598,49 +589,38 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" s="8"/>
     </row>
@@ -648,14 +628,14 @@
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="17" t="s">
         <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="8"/>
     </row>
@@ -663,15 +643,6 @@
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2281,11 +2252,8 @@
       <formula1>"AuthCredentials,SecureData,Text,WinCred,Path,PathMaster"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2293,8 +2261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2329,19 +2297,33 @@
         <v>6</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="C3" s="3"/>
+      <c r="D3" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -83,9 +83,6 @@
     <t>RiveGaucheURL</t>
   </si>
   <si>
-    <t>https://rivegauche.ru/</t>
-  </si>
-  <si>
     <t>URL сайта, где можно получить данные</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>MailRecip</t>
+  </si>
+  <si>
+    <t>https://rivegauche.ru</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:E544"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -592,13 +592,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -632,10 +632,10 @@
         <v>18</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D10" s="8"/>
     </row>
@@ -2252,8 +2252,11 @@
       <formula1>"AuthCredentials,SecureData,Text,WinCred,Path,PathMaster"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2302,27 +2305,27 @@
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Имя</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>https://rivegauche.ru</t>
+  </si>
+  <si>
+    <t>pg_Credential</t>
+  </si>
+  <si>
+    <t>credentialPG</t>
   </si>
 </sst>
 </file>
@@ -527,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E544"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2264,8 +2270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2328,6 +2334,20 @@
         <v>24</v>
       </c>
     </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="C5" s="6"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Имя</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>credentialPG</t>
+  </si>
+  <si>
+    <t>PQTableNameBrand</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>PQTableNameCity</t>
+  </si>
+  <si>
+    <t>city</t>
   </si>
 </sst>
 </file>
@@ -533,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E544"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -646,9 +658,21 @@
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2270,7 +2294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
